--- a/DOM_Banner/output/dept0713/John N Galgiani_2023.xlsx
+++ b/DOM_Banner/output/dept0713/John N Galgiani_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Banner Health Corporation , Phoenix, Arizona , USA; Banner Urgent Care Services , Phoenix, Arizona , USA; Banner Urgent Care Services , Phoenix, Arizona , USA; Banner Urgent Care Services , Phoenix, Arizona , USA; Banner Urgent Care Services , Phoenix, Arizona , USA; Department of Epidemiology and Biostatistics, College of Public Health, University of Arizona , Tucson, Arizona , USA; Banner—University Health Valley Fever Program , Phoenix, Arizona , USA; Valley Fever Center for Excellence, College of Medicine—Tucson, University of Arizona , Tucson, Arizona , USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318689573</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Improving Early Recognition of Coccidioidomycosis in Urgent Care Clinics: Analysis of an Implemented Education Program</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac654</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36733697</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac654</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Valley Fever Center for Excellence, College of Medicine-Tucson, University of Arizona, Tucson, AZ 85721, USA; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, MD 20892, USA.; Valley Fever Center for Excellence, College of Medicine-Tucson, University of Arizona, Tucson, AZ 85721, USA.; Department of Medicine, Harvard Medical School, Boston, MA 02115, USA.; Division of Infectious Diseases, Massachusetts General Hospital, Boston, MA 02114, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, MD 20892, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378349035</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Genetic and Other Determinants for the Severity of Coccidioidomycosis: A Clinician’s Perspective</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof9050554</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37233265</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof9050554</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Epidemic Intelligence Service, Centers for Disease Control and Prevention , Atlanta, Georgia , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA; Department of Internal Medicine, Division of Infectious Diseases and the Department of Medical Microbiology and Immunology, University of California Davis Medical Center , Sacramento, California , USA; University of California Davis Center for Valley Fever , Sacramento, California , USA; Baltimore VA Medical Center , Baltimore, Maryland , USA; University of Maryland School of Medicine , Baltimore, Maryland , USA; Division of Infectious Diseases, Department of Medicine, University of Alabama at Birmingham School of Medicine , Birmingham, Alabama , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA; ; ; ; ; ; ; ; ; ; ; ; ; Terranova Medica, LLC , Colorado Springs, Colorado , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA; Mycotic Diseases Branch, Division of Foodborne, Waterborne and Environmental Diseases , Atlanta, Georgia , USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387420273</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Clinical Testing Guidance for Coccidioidomycosis, Histoplasmosis, and Blastomycosis in Patients With Community-Acquired Pneumonia for Primary and Urgent Care Providers</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-10-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciad619</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>public-domain</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37802909</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciad619</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/John N Galgiani_2023.xlsx
+++ b/DOM_Banner/output/dept0713/John N Galgiani_2023.xlsx
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dallas J Smith, Rebecca J Free, George R. Thompson, John W. Baddley, Peter G. Pappas, Kaitlin Benedict, Jeremy A W Gold, David R. Andes, Robert W. Bradsher, Mark H. Ebell, Andrej Spec, Nathan C Bahr, Carol A. Kauffman, Timothy Mott, Michael Saccente, Janis E. Blair, John N. Galgiani, Royce H. Johnson, Richard W. Rutherford, Lisa A Tushla, Tom Chiller, Brendan R Jackson, Mitsuru Toda</t>
+          <t>Dallas J. Smith, Rebecca J Free, George R. Thompson, John W. Baddley, Peter G. Pappas, Kaitlin Benedict, Jeremy A W Gold, David R. Andes, Robert W. Bradsher, Mark H. Ebell, Andrej Spec, Nathan C Bahr, Carol A. Kauffman, Timothy Mott, Michael Saccente, Janis E. Blair, John N. Galgiani, Royce H. Johnson, Richard W. Rutherford, Lisa A Tushla, Tom Chiller, Brendan R Jackson, Mitsuru Toda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
